--- a/RESULTS/_AUXILIARY/PS112_summary_segments.xlsx
+++ b/RESULTS/_AUXILIARY/PS112_summary_segments.xlsx
@@ -461,22 +461,22 @@
         <v>43214</v>
       </c>
       <c r="C2" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.299</v>
+        <v>1.11803513600192</v>
       </c>
       <c r="E2" t="n">
-        <v>5.31</v>
+        <v>5.27771380613917</v>
       </c>
       <c r="F2" t="n">
-        <v>4.64701179941003</v>
+        <v>4.81497555171278</v>
       </c>
       <c r="G2" t="n">
-        <v>3150.674</v>
+        <v>3269.36839961298</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>2.22413793103448</v>
+        <v>2.34545454545455</v>
       </c>
       <c r="L2" t="n">
         <v>129</v>
@@ -500,10 +500,10 @@
         <v>206</v>
       </c>
       <c r="P2" t="n">
-        <v>3.55172413793103</v>
+        <v>3.74545454545455</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.64367816091954</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
